--- a/biology/Botanique/Chlorophyta/Chlorophyta.xlsx
+++ b/biology/Botanique/Chlorophyta/Chlorophyta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chlorophytes (Chlorophyta) sont une division des Plantae. Elles comprennent une partie de ce que l’on appelle communément algues vertes.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,48 +553,125 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Position systématique classique
-Les Chlorophytes, au sens large, constituent l'un des 14 embranchements (ou divisions) du règne végétal (Plantae), parfois plutôt classé dans un règne des Algues (Algae) qui comprend aussi par ailleurs des protistes dont il ne sera pas question ici (⇒ voir article Algue).
-Position phylogénétique
-Elles sont divisées en deux groupes : d'une part les Chlorophyta stricto sensu, qui constituent au sein des plantes vertes un groupe monophylétique, et d'autre part les Charophyta, groupe paraphylétique situé à la base de l'autre branche, les Streptophyta, comportant également les plantes terrestres.
-Classification du groupe
-la classe des Chlorophycées (Chlorophyceae) ;
+          <t>Position systématique classique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Chlorophytes, au sens large, constituent l'un des 14 embranchements (ou divisions) du règne végétal (Plantae), parfois plutôt classé dans un règne des Algues (Algae) qui comprend aussi par ailleurs des protistes dont il ne sera pas question ici (⇒ voir article Algue).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chlorophyta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorophyta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Position phylogénétique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont divisées en deux groupes : d'une part les Chlorophyta stricto sensu, qui constituent au sein des plantes vertes un groupe monophylétique, et d'autre part les Charophyta, groupe paraphylétique situé à la base de l'autre branche, les Streptophyta, comportant également les plantes terrestres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chlorophyta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorophyta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classification du groupe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>la classe des Chlorophycées (Chlorophyceae) ;
 la classe des Ulvophycées (Ulvophyceae) ;
 la classe des Pleurastrophycées, devenues récemment[Quand ?] Trébouxiophycées (Trebouxiophyceae) ;
-Ces trois classes forment vraisemblablement un groupe monophylétique, parfois nommé chlorophyte clade (Lewis et McCourt[1]) quoique ce dernier terme désigne couramment les seules Ulvophycées.
+Ces trois classes forment vraisemblablement un groupe monophylétique, parfois nommé chlorophyte clade (Lewis et McCourt) quoique ce dernier terme désigne couramment les seules Ulvophycées.
 la classe des Prasinophycées (Prasinophyceae), aujourd'hui[Quand ?] regardée comme le grade primitif, paraphylétique, des Chlorophytes ;
 la classe des Pédinophycées (Pedinophyceae) récemment[Quand ?] séparée de la précédente ;
 la classe des Charophycées (Charophyceae), phylogénétiquement plus proche des Embryophytes que des autres Algues vertes (⇒ voir article Streptophyta), et elle aussi paraphylétique.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Chlorophyta</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chlorophyta</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des classes et des sous-divisions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (21 juillet 2017)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (21 juillet 2017) :
 classe des Chlorophyta incertae sedis
 classe des Palmophyllophyceae Leliaert et al.
 sous-embranchement des Chlorophytina
@@ -596,64 +687,68 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Chlorophyta</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chlorophyta</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Une origine probablement océanique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En février 2020, les plus anciens fossiles d'algues vertes nommées Proterocladus antiquus, qui vivaient dans un océan peu profond, restes datés d'un milliard d'années, ont été découverts dans la province du Liaoning, en Chine[3]. Toutes les plantes terrestres, jusqu'aux plus grands arbres, auraient évolué à partir des plantes aquatiques qu'étaient les algues[3].  Selon une étude parue dans la revue Nature Ecology &amp; Evolution la découverte de Proterocladus antiquus plaide en faveur d'une origine océanique des algues vertes, contre l'hypothèse selon laquelle les algues vertes aquatiques seraient d'abord apparues dans des environnements d’eau douce - lacs ou rivières -, avant de coloniser l’océan et toute la surface terrestre[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En février 2020, les plus anciens fossiles d'algues vertes nommées Proterocladus antiquus, qui vivaient dans un océan peu profond, restes datés d'un milliard d'années, ont été découverts dans la province du Liaoning, en Chine. Toutes les plantes terrestres, jusqu'aux plus grands arbres, auraient évolué à partir des plantes aquatiques qu'étaient les algues.  Selon une étude parue dans la revue Nature Ecology &amp; Evolution la découverte de Proterocladus antiquus plaide en faveur d'une origine océanique des algues vertes, contre l'hypothèse selon laquelle les algues vertes aquatiques seraient d'abord apparues dans des environnements d’eau douce - lacs ou rivières -, avant de coloniser l’océan et toute la surface terrestre.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Chlorophyta</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chlorophyta</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Génie génétique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2016, trois chercheurs (chinois, allemand et égyptien) ont démontré qu'il est possible en laboratoire de fusionner les protoplastes d'espèces d'algues différentes et de provoquer une recombinaison génétique ; le phénomène a été expérimenté entre Haematococcus pluvialis (Chlorophyta) et Ochromonas danica (Chrysophyta)[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, trois chercheurs (chinois, allemand et égyptien) ont démontré qu'il est possible en laboratoire de fusionner les protoplastes d'espèces d'algues différentes et de provoquer une recombinaison génétique ; le phénomène a été expérimenté entre Haematococcus pluvialis (Chlorophyta) et Ochromonas danica (Chrysophyta).
 </t>
         </is>
       </c>
